--- a/data/trans_bre/P32-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P32-Estudios-trans_bre.xlsx
@@ -660,22 +660,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.482627337945464</v>
+        <v>-3.504870354580393</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.484958125066806</v>
+        <v>-7.431809890674989</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-7.386153193526569</v>
+        <v>-7.416924879824592</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-11.10367193020092</v>
+        <v>-10.95572490378748</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.9442722523342744</v>
+        <v>-0.9425081535012961</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>-1</v>
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.944687481570494</v>
+        <v>2.642951518989912</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.65012363007491</v>
+        <v>-2.098472127902553</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-1.521931750453996</v>
+        <v>-1.712577618488617</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-3.251464155463369</v>
+        <v>-3.90770129303516</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.27441010196458</v>
+        <v>2.194777499597223</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.3130661490204619</v>
+        <v>-0.3730173240975854</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.007346015473164846</v>
+        <v>-0.168488867592695</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.394744903317763</v>
+        <v>-0.398241713250797</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-1.410846411627167</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-2.719402794636071</v>
+        <v>-2.719402794636072</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.3930742053937235</v>
@@ -749,7 +749,7 @@
         <v>-0.2797885894665645</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.4491765485632535</v>
+        <v>-0.4491765485632536</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.425089683920815</v>
+        <v>-2.51401391690993</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-7.035845303274614</v>
+        <v>-6.880856960761523</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-3.357956710680168</v>
+        <v>-3.143715725926119</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-5.097573709345633</v>
+        <v>-5.276991760583473</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7236452854800676</v>
+        <v>-0.7444906445268876</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.8381559372543751</v>
+        <v>-0.8348473790750928</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5723131593649261</v>
+        <v>-0.5393806368155655</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6951628576383699</v>
+        <v>-0.7167679713497288</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6138555703061228</v>
+        <v>0.3991830659213079</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-2.879271450445157</v>
+        <v>-2.754468157964691</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4186038800791291</v>
+        <v>0.5106866615050243</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-0.3879212316868117</v>
+        <v>-0.4942183298090812</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3498637654066098</v>
+        <v>0.2091750552883022</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.4377262878531231</v>
+        <v>-0.4069037862176923</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1038778384940476</v>
+        <v>0.1617471496097501</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.03451605738888449</v>
+        <v>-0.07548888995668493</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-2.320761445297388</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-2.402343221614923</v>
+        <v>-2.402343221614924</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.7566007313792721</v>
@@ -849,7 +849,7 @@
         <v>-0.4005721623904402</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.3559132615530599</v>
+        <v>-0.3559132615530601</v>
       </c>
     </row>
     <row r="11">
@@ -860,26 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.946850490066298</v>
+        <v>-3.849075583764419</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.303102693311754</v>
+        <v>-7.219523123602836</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.692759128474578</v>
+        <v>-5.778074771843869</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.899520527896408</v>
-      </c>
-      <c r="G11" s="6" t="inlineStr"/>
+        <v>-5.936745393450351</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="H11" s="6" t="n">
-        <v>-0.9001769556066461</v>
+        <v>-0.896406716306122</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.7491318645154941</v>
+        <v>-0.7559765826872952</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.7013585525199498</v>
+        <v>-0.6989925691880949</v>
       </c>
     </row>
     <row r="12">
@@ -890,26 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1514721277037621</v>
+        <v>0.2443828673042426</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7105051869595342</v>
+        <v>0.7261506968655377</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.246992632357597</v>
+        <v>1.111893906810238</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.518994834687188</v>
-      </c>
-      <c r="G12" s="6" t="inlineStr"/>
+        <v>1.393285167902512</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>1.362473689246438</v>
+      </c>
       <c r="H12" s="6" t="n">
-        <v>0.3960837420218795</v>
+        <v>0.3701870156974693</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4210030807995658</v>
+        <v>0.3073788330853058</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3555093712154084</v>
+        <v>0.3179623203252825</v>
       </c>
     </row>
     <row r="13">
@@ -933,7 +937,7 @@
         <v>-1.979666264028319</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-3.070226389927545</v>
+        <v>-3.070226389927543</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.4593916467689654</v>
@@ -945,7 +949,7 @@
         <v>-0.3778416088427585</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.4702330460492231</v>
+        <v>-0.470233046049223</v>
       </c>
     </row>
     <row r="14">
@@ -956,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.315676661711513</v>
+        <v>-2.355894450501183</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-6.074524853873123</v>
+        <v>-6.118053855002847</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-3.412003440787063</v>
+        <v>-3.343294560171587</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-4.940793982105154</v>
+        <v>-4.873051697425025</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7403519712593938</v>
+        <v>-0.7265522166204206</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.8129525940341039</v>
+        <v>-0.8081266337082101</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.573958082072859</v>
+        <v>-0.5813833195512867</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6552273771532249</v>
+        <v>-0.6599788252169759</v>
       </c>
     </row>
     <row r="15">
@@ -988,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-0.07547619488036342</v>
+        <v>-0.03754927254446462</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-3.075934278434306</v>
+        <v>-3.035211100526111</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-0.4618876551024086</v>
+        <v>-0.3291203964170853</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-1.113534584177333</v>
+        <v>-1.128861687104715</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.02456453440379503</v>
+        <v>0.04302555009901984</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.499999643761748</v>
+        <v>-0.4835849682491658</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.08349211908384019</v>
+        <v>-0.05642334213324376</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.161668935935679</v>
+        <v>-0.1707618801688103</v>
       </c>
     </row>
     <row r="16">
